--- a/word_IPA_wikcionario_dipht_free.xlsx
+++ b/word_IPA_wikcionario_dipht_free.xlsx
@@ -58,7 +58,7 @@
     <t>['kaj.ˈaɾ']</t>
   </si>
   <si>
-    <t>['ˈbaj.Ru']</t>
+    <t>['ˈbaj.ʀu']</t>
   </si>
   <si>
     <t>['ˈkajʃ']</t>
@@ -109,7 +109,7 @@
     <t>['aɫ.fɐj.ˈa.tɨ']</t>
   </si>
   <si>
-    <t>['Rɐ.ˈi.ɲɐ']</t>
+    <t>['ʀɐ.ˈi.ɲɐ']</t>
   </si>
   <si>
     <t>['ẽ.baj.ʃɐ.ˈdoɾ']</t>
@@ -124,7 +124,7 @@
     <t>['ẽ.saj.ˈaɾ']</t>
   </si>
   <si>
-    <t>['ˈRaj.vɐ']</t>
+    <t>['ˈʀaj.vɐ']</t>
   </si>
   <si>
     <t>['mɐj.ˈɔɾ']</t>
@@ -175,7 +175,7 @@
     <t>['ˈbaj.u']</t>
   </si>
   <si>
-    <t>['ɐ.Rɐj.ˈaɫ']</t>
+    <t>['ɐ.ʀɐj.ˈaɫ']</t>
   </si>
   <si>
     <t>['ɡaj.ˈvɔ.tɐ']</t>
@@ -184,13 +184,13 @@
     <t>['tɐ.ˈi.ɲɐ']</t>
   </si>
   <si>
-    <t>['ˈRaj.ɐ']</t>
+    <t>['ˈʀaj.ɐ']</t>
   </si>
   <si>
     <t>['ɡaj.ˈa.tu']</t>
   </si>
   <si>
-    <t>['ɐ.tɾaj.ˈswaɾ']</t>
+    <t>['ɐ.tɾaj.ˈsu.aɾ']</t>
   </si>
   <si>
     <t>['bɐ.ˈi.ɲɐ']</t>
@@ -214,7 +214,7 @@
     <t>['dɨʒ.vaj.ˈɾaɾ']</t>
   </si>
   <si>
-    <t>['Raj.ˈaɾ']</t>
+    <t>['ʀaj.ˈaɾ']</t>
   </si>
   <si>
     <t>['baj.ˈʃi.ɲu']</t>
@@ -232,16 +232,16 @@
     <t>['kõ.paj.ˈʃɐ̃w̃']</t>
   </si>
   <si>
-    <t>['ɐ.Raj.ˈɡaɾ']</t>
-  </si>
-  <si>
-    <t>['ẽ.Rɐ.i.ˈzaɾ']</t>
+    <t>['ɐ.ʀaj.ˈɡaɾ']</t>
+  </si>
+  <si>
+    <t>['ẽ.ʀɐ.i.ˈzaɾ']</t>
   </si>
   <si>
     <t>['vaj.ˈda.dɨ']</t>
   </si>
   <si>
-    <t>['Rɨ.baj.ˈʃaɾ']</t>
+    <t>['ʀɨ.baj.ˈʃaɾ']</t>
   </si>
   <si>
     <t>['paj.ˈɔɫ']</t>
@@ -265,7 +265,7 @@
     <t>['paj.ˈɾaɾ']</t>
   </si>
   <si>
-    <t>['ɐ.ˈRaj.ɐ']</t>
+    <t>['ɐ.ˈʀaj.ɐ']</t>
   </si>
   <si>
     <t>['ɐ.ˈsaj.mɨ']</t>
@@ -340,7 +340,7 @@
     <t>['paj.ˈnɛɫ']</t>
   </si>
   <si>
-    <t>['Rɨ.tɾɐ.ˈiɾ']</t>
+    <t>['ʀɨ.tɾɐ.ˈiɾ']</t>
   </si>
   <si>
     <t>['ˈlaj.ɐ']</t>
@@ -364,10 +364,10 @@
     <t>['ẽ.vaj.dɨ.ˈseɾ']</t>
   </si>
   <si>
-    <t>['Raj.ˈvo.zu']</t>
-  </si>
-  <si>
-    <t>['ẽ.Raj.vɨ.ˈseɾ']</t>
+    <t>['ʀaj.ˈvo.zu']</t>
+  </si>
+  <si>
+    <t>['ẽ.ʀaj.vɨ.ˈseɾ']</t>
   </si>
   <si>
     <t>['bɐj.ˈu.kɐ']</t>
@@ -400,7 +400,7 @@
     <t>['dɨʒ.maj.ˈa.du']</t>
   </si>
   <si>
-    <t>['Rɨ.baj.ʃɐ.ˈmẽ.tu']</t>
+    <t>['ʀɨ.baj.ʃɐ.ˈmẽ.tu']</t>
   </si>
   <si>
     <t>['dɨ.kɐ.ˈiɾ']</t>
@@ -412,7 +412,7 @@
     <t>['kaj.ˈʃɔ.tɨ']</t>
   </si>
   <si>
-    <t>['dɨ.zɐ.Raj.ˈɡaɾ']</t>
+    <t>['dɨ.zɐ.ʀaj.ˈɡaɾ']</t>
   </si>
   <si>
     <t>['ẽ.kaj.ʃu.ˈtaɾ']</t>
@@ -421,10 +421,10 @@
     <t>['ˈaj.du']</t>
   </si>
   <si>
-    <t>['baj.ˈRiʒ.mu']</t>
-  </si>
-  <si>
-    <t>['baj.ˈRiʃ.tɐ']</t>
+    <t>['baj.ˈʀiʒ.mu']</t>
+  </si>
+  <si>
+    <t>['baj.ˈʀiʃ.tɐ']</t>
   </si>
   <si>
     <t>['ɔ.ˈlaj.ɐ']</t>
@@ -862,13 +862,13 @@
     <t>['bɐj.ˈʒaɾ']</t>
   </si>
   <si>
-    <t>['bɐ.ˈljɐj.ɾu']</t>
+    <t>['bɐ.ˈli.ɐj.ɾu']</t>
   </si>
   <si>
     <t>['ɐ.mˈɐj.ʃɐ']</t>
   </si>
   <si>
-    <t>['fɨ.ˈRɐj.ɾu']</t>
+    <t>['fɨ.ˈʀɐj.ɾu']</t>
   </si>
   <si>
     <t>['ˈlɐj.tɨ']</t>
@@ -922,7 +922,7 @@
     <t>['kõ.fɐj.tɐ.ˈɾi.ɐ']</t>
   </si>
   <si>
-    <t>['ˈRɐj']</t>
+    <t>['ˈʀɐj']</t>
   </si>
   <si>
     <t>['mu.ˈɾɐj.ɐ']</t>
@@ -934,10 +934,10 @@
     <t>['ˈsɐj.vɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.kɐj.ˈʒɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['Rɨ.ˈsɐj.tɐ']</t>
+    <t>['ʀɨ.kɐj.ˈʒɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.ˈsɐj.tɐ']</t>
   </si>
   <si>
     <t>['sĩ.ˈzɐj.ɾu']</t>
@@ -970,7 +970,7 @@
     <t>['dɐj.ˈʃaɾ']</t>
   </si>
   <si>
-    <t>['ɡu.nu.ˈRɐj.ɐ']</t>
+    <t>['ɡu.nu.ˈʀɐj.ɐ']</t>
   </si>
   <si>
     <t>['i.ˈdɐj.ɐ']</t>
@@ -991,13 +991,13 @@
     <t>['ʒɨ.lɐ.ˈdɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['djɐ.ˈRɐj.ɐ']</t>
+    <t>['di.ɐ.ˈʀɐj.ɐ']</t>
   </si>
   <si>
     <t>['ɔʃ.pɨ.ˈdɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['kɐ̃.ˈdjɐj.ɾu']</t>
+    <t>['kɐ̃.ˈdi.ɐj.ɾu']</t>
   </si>
   <si>
     <t>['ɐ.ˈvɐj.ɐ']</t>
@@ -1006,7 +1006,7 @@
     <t>['kõ.tẽ.pu.ɾɐ.nɐj.ˈda.dɨ']</t>
   </si>
   <si>
-    <t>['Rɨʃ.pɐj.ˈtɐ̃.tɨ']</t>
+    <t>['ʀɨʃ.pɐj.ˈtɐ̃.tɨ']</t>
   </si>
   <si>
     <t>['kaɫ.sɐ.ˈdɐj.ɾɐ']</t>
@@ -1039,7 +1039,7 @@
     <t>['dɐ.mɐʃ.ˈkɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Ru.mɐ̃.ˈzɐj.ɾɐ']</t>
+    <t>['ʀu.mɐ̃.ˈzɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['fɐj.ˈʒwɐj.ɾu']</t>
@@ -1057,7 +1057,7 @@
     <t>['low.ˈɾɐj.ɾu']</t>
   </si>
   <si>
-    <t>['mɐ.ˈsjɐj.ɾɐ']</t>
+    <t>['mɐ.ˈsi.ɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['mu.ɾɐ̃.ˈɡɐj.ɾu']</t>
@@ -1120,10 +1120,10 @@
     <t>['kɐɾ.ˈtɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['si.ɡɐ.ˈRɐj.ɾɐ']</t>
-  </si>
-  <si>
-    <t>['ku.ˈRɐj.ɐ']</t>
+    <t>['si.ɡɐ.ˈʀɐj.ɾɐ']</t>
+  </si>
+  <si>
+    <t>['ku.ˈʀɐj.ɐ']</t>
   </si>
   <si>
     <t>['iʃ.ˈkɐj.ɾu']</t>
@@ -1138,16 +1138,16 @@
     <t>['puɫ.ˈsɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Row.ˈpɐj.ɾu']</t>
+    <t>['ʀow.ˈpɐj.ɾu']</t>
   </si>
   <si>
     <t>['ˈtɐj.ɐ']</t>
   </si>
   <si>
-    <t>['kɐ̃.sju.ˈnɐj.ɾu']</t>
-  </si>
-  <si>
-    <t>['ku.ˈRɐj.u']</t>
+    <t>['kɐ̃.si.u.ˈnɐj.ɾu']</t>
+  </si>
+  <si>
+    <t>['ku.ˈʀɐj.u']</t>
   </si>
   <si>
     <t>['ɐɾ.ˈkɐj.ɾu']</t>
@@ -1162,7 +1162,7 @@
     <t>['ɐ.ˈʎɐj.u']</t>
   </si>
   <si>
-    <t>['dɨʒ.Rɨʃ.pɐj.ˈtaɾ']</t>
+    <t>['dɨʒ.ʀɨʃ.pɐj.ˈtaɾ']</t>
   </si>
   <si>
     <t>['ˈfɐj.u']</t>
@@ -1189,7 +1189,7 @@
     <t>['ẽ.bõ.ˈdɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɨʃ.pɐj.ˈtaɾ']</t>
+    <t>['ʀɨʃ.pɐj.ˈtaɾ']</t>
   </si>
   <si>
     <t>['ẽ.fɐj.ti.ˈsaɾ']</t>
@@ -1249,16 +1249,16 @@
     <t>['dɨ.vɐ.ˈnɐj.u']</t>
   </si>
   <si>
-    <t>['Rɨʃ.pɐj.ˈta.vɛɫ']</t>
-  </si>
-  <si>
-    <t>['mɐjt.ˈnɛ.ɾju']</t>
+    <t>['ʀɨʃ.pɐj.ˈta.vɛɫ']</t>
+  </si>
+  <si>
+    <t>['mɐjt.ˈnɛ.ɾi.u']</t>
   </si>
   <si>
     <t>['su.bɾɐ̃.ˈsɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈsɐj.u']</t>
+    <t>['ʀɨ.ˈsɐj.u']</t>
   </si>
   <si>
     <t>['iʃ.ˈtɾɐj.tu']</t>
@@ -1282,16 +1282,16 @@
     <t>['mɐ.ˈnɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Rɨʃ.ˈpɐj.tu']</t>
-  </si>
-  <si>
-    <t>['Rɨ.fɐj.ˈsɐ̃w̃']</t>
+    <t>['ʀɨʃ.ˈpɐj.tu']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.fɐj.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['i.lɐj.ˈsɐ̃w̃']</t>
   </si>
   <si>
-    <t>['Rɨ.fɐj.ˈtɔ.ɾju']</t>
+    <t>['ʀɨ.fɐj.ˈtɔ.ɾi.u']</t>
   </si>
   <si>
     <t>['ɐ.sɐj.ˈtaɾ']</t>
@@ -1303,10 +1303,10 @@
     <t>['dɨʃ.fi.lɐ.ˈdɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɐ.ɾɨ.ˈfɐj.tu']</t>
-  </si>
-  <si>
-    <t>['bɐ.ˈRɐj.ɾɐ']</t>
+    <t>['ʀɐ.ɾɨ.ˈfɐj.tu']</t>
+  </si>
+  <si>
+    <t>['bɐ.ˈʀɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['ɐ.pɾu.vɐj.ˈtaɾ']</t>
@@ -1330,7 +1330,7 @@
     <t>['ɐ.sɐj.ˈta.vɛɫ']</t>
   </si>
   <si>
-    <t>['Rɐʃ.ˈtɐj.ɾu']</t>
+    <t>['ʀɐʃ.ˈtɐj.ɾu']</t>
   </si>
   <si>
     <t>['ĩ.pɨɾ.fɐj.ˈsɐ̃w̃']</t>
@@ -1357,16 +1357,16 @@
     <t>['fi.ˈʃɐj.ɾu']</t>
   </si>
   <si>
-    <t>['pu.ˈRɐj.ɾu']</t>
-  </si>
-  <si>
-    <t>['Rɐ.ˈfɐj.ɾu']</t>
+    <t>['pu.ˈʀɐj.ɾu']</t>
+  </si>
+  <si>
+    <t>['ʀɐ.ˈfɐj.ɾu']</t>
   </si>
   <si>
     <t>['bɨ.bɨ.ˈdɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['bu.Rɐ.ˈʃɐj.ɾɐ']</t>
+    <t>['bu.ʀɐ.ˈʃɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['sẽ.ˈtɐj.u']</t>
@@ -1462,7 +1462,7 @@
     <t>['ẽ.tɾĩ.ʃɐj.ˈɾaɾ']</t>
   </si>
   <si>
-    <t>['Rɨ.ʒɐj.ˈtaɾ']</t>
+    <t>['ʀɨ.ʒɐj.ˈtaɾ']</t>
   </si>
   <si>
     <t>['iʃ.tɾɐj.ˈtaɾ']</t>
@@ -1471,7 +1471,7 @@
     <t>['bɾĩ.kɐ.ˈdɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ɐ.fɐj.ˈswaɾ']</t>
+    <t>['ɐ.fɐj.ˈsu.aɾ']</t>
   </si>
   <si>
     <t>['ɐ.ʒɐj.ˈtaɾ']</t>
@@ -1492,7 +1492,7 @@
     <t>['ˈfɐj.tɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.sɐj.ˈtaɾ']</t>
+    <t>['ʀɨ.sɐj.ˈtaɾ']</t>
   </si>
   <si>
     <t>['tɐ.bu.ˈlɐj.ɾu']</t>
@@ -1501,7 +1501,7 @@
     <t>['kɐvɐˈlɐjɾu']</t>
   </si>
   <si>
-    <t>['ˈRɐj.nu']</t>
+    <t>['ˈʀɐj.nu']</t>
   </si>
   <si>
     <t>['kɐ.vɐ.ˈʎɐj.ɾu']</t>
@@ -1540,10 +1540,10 @@
     <t>['ˈɔ.kɐj']</t>
   </si>
   <si>
-    <t>['Rɐj.vĩ.di.ˈkaɾ']</t>
-  </si>
-  <si>
-    <t>['kwɐɾ.tɐj.ˈɾɐ̃w̃']</t>
+    <t>['ʀɐj.vĩ.di.ˈkaɾ']</t>
+  </si>
+  <si>
+    <t>['kʷɐɾ.tɐj.ˈɾɐ̃w̃']</t>
   </si>
   <si>
     <t>['lɐj.ˈtu.ɾɐ']</t>
@@ -1552,10 +1552,10 @@
     <t>['ˈkɐj.ʃu']</t>
   </si>
   <si>
-    <t>['kɐ.ˈRɐj.ɾɐ']</t>
-  </si>
-  <si>
-    <t>['Rɨ.ˈkɾɐj.u']</t>
+    <t>['kɐ.ˈʀɐj.ɾɐ']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.ˈkɾɐj.u']</t>
   </si>
   <si>
     <t>['tɾɐj.ˈnaɾ']</t>
@@ -1567,7 +1567,7 @@
     <t>['ĩ.pɨɾ.ˈfɐj.tu']</t>
   </si>
   <si>
-    <t>['dɨ.fɐj.ˈtwo.zu']</t>
+    <t>['dɨ.fɐj.ˈtu.o.zu']</t>
   </si>
   <si>
     <t>['kɐ.ti.ˈvɐj.ɾu']</t>
@@ -1576,7 +1576,7 @@
     <t>['ow.ˈtɐj.ɾu']</t>
   </si>
   <si>
-    <t>['fɐj.ˈʒwa.dɐ']</t>
+    <t>['fɐj.ˈʒu.a.dɐ']</t>
   </si>
   <si>
     <t>['ˈʃɐj.ɐ']</t>
@@ -1597,7 +1597,7 @@
     <t>['ku.ˈʎɐj.tɐ']</t>
   </si>
   <si>
-    <t>['Rɐ.ˈtɐj.u']</t>
+    <t>['ʀɐ.ˈtɐj.u']</t>
   </si>
   <si>
     <t>['ku.ˈvɐj.ru', 'kɔ.ˈvɐj.ru']</t>
@@ -1621,22 +1621,22 @@
     <t>['kuɾ.di.ˈʎɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ɐ.ˈRɐj.u']</t>
+    <t>['ɐ.ˈʀɐj.u']</t>
   </si>
   <si>
     <t>['kɐj.ˈma.du']</t>
   </si>
   <si>
-    <t>['dɨʒ.Rɨʃ.ˈpɐj.tu']</t>
-  </si>
-  <si>
-    <t>['Ru.ti.ˈnɐj.ɾu']</t>
+    <t>['dɨʒ.ʀɨʃ.ˈpɐj.tu']</t>
+  </si>
+  <si>
+    <t>['ʀu.ti.ˈnɐj.ɾu']</t>
   </si>
   <si>
     <t>['bo.bɐɾ.ˈdɐj.ɾu']</t>
   </si>
   <si>
-    <t>['lɐj.ˈlwaɾ']</t>
+    <t>['lɐj.ˈlu.aɾ']</t>
   </si>
   <si>
     <t>['lɐj.ˈlɐ̃w̃']</t>
@@ -1654,7 +1654,7 @@
     <t>['kɐɾ.ˈvwɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɐj.tɨ.ˈɾaɾ']</t>
+    <t>['ʀɐj.tɨ.ˈɾaɾ']</t>
   </si>
   <si>
     <t>['kõ.plɐj.ˈsɐ̃w̃']</t>
@@ -1669,7 +1669,7 @@
     <t>['bɾɛ.ˈʒɐj.ɾu']</t>
   </si>
   <si>
-    <t>['iʃ.ku.ˈRɐj.tu']</t>
+    <t>['iʃ.ku.ˈʀɐj.tu']</t>
   </si>
   <si>
     <t>['pɐ.ɾɐ.ˈpɐj.tu']</t>
@@ -1681,13 +1681,13 @@
     <t>['ˈvɐj.u']</t>
   </si>
   <si>
-    <t>['ku.Ri.ˈkɐj.ɾu']</t>
+    <t>['ku.ʀi.ˈkɐj.ɾu']</t>
   </si>
   <si>
     <t>['kɐ.ˈʃwɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.puʃ.ˈtɐj.ɾu']</t>
+    <t>['ʀɨ.puʃ.ˈtɐj.ɾu']</t>
   </si>
   <si>
     <t>['pɐj.tu.ˈɾiɫ']</t>
@@ -1714,16 +1714,16 @@
     <t>['ˈɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ɐ.fɐj.ˈswa.du']</t>
-  </si>
-  <si>
-    <t>['kɐ.lɐj.dɔʃ.ˈkɔ.pju']</t>
+    <t>['ɐ.fɐj.ˈsu.a.du']</t>
+  </si>
+  <si>
+    <t>['kɐ.lɐj.dɔʃ.ˈkɔ.pi.u']</t>
   </si>
   <si>
     <t>['fɐj.ˈti.u']</t>
   </si>
   <si>
-    <t>['djɐ̃.ˈtɐj.ɾu']</t>
+    <t>['di.ɐ̃.ˈtɐj.ɾu']</t>
   </si>
   <si>
     <t>['tow.ˈpɐj.ɾɐ']</t>
@@ -1732,16 +1732,16 @@
     <t>['ˈbwɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈʃɐj.u']</t>
-  </si>
-  <si>
-    <t>['Rɐ.ˈtwɐj.ɾɐ']</t>
+    <t>['ʀɨ.ˈʃɐj.u']</t>
+  </si>
+  <si>
+    <t>['ʀɐ.ˈtwɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['bu.ˈtwɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.su.Rɐj.ˈsɐ̃w̃']</t>
+    <t>['ʀɨ.su.ʀɐj.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['tɾɐ.ˈzɐj.ɾɐ']</t>
@@ -1765,7 +1765,7 @@
     <t>['ɐ.ˈpnɐj.ɐ']</t>
   </si>
   <si>
-    <t>['ɐ.Ru.ˈtɐj.ɐ']</t>
+    <t>['ɐ.ʀu.ˈtɐj.ɐ']</t>
   </si>
   <si>
     <t>['ˈkɐj.mɐ']</t>
@@ -1786,7 +1786,7 @@
     <t>['ˈpɔ.nɐj']</t>
   </si>
   <si>
-    <t>['Ri.ˈbɐj.ɾɐ']</t>
+    <t>['ʀi.ˈbɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['ɔ.nɔ.mɐ.tu.ˈpɐj.ku']</t>
@@ -1810,7 +1810,7 @@
     <t>['fɐj.ˈɾɐ̃.tɨ']</t>
   </si>
   <si>
-    <t>['Rɨ.ĩ.pɾɨ.ˈsɐ̃w̃']</t>
+    <t>['ʀɨ.ĩ.pɾɨ.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['ʃɐj.ˈɾo.zu']</t>
@@ -1822,7 +1822,7 @@
     <t>['ku.ˈʃɐj.ɾu']</t>
   </si>
   <si>
-    <t>['sju.ˈmɐj.ɾɐ']</t>
+    <t>['si.u.ˈmɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['ɡɐ.ʎu.ˈfɐj.ɾu']</t>
@@ -1834,7 +1834,7 @@
     <t>['vu.zɐj.ˈɾɐ̃w̃']</t>
   </si>
   <si>
-    <t>['Rɐj.ˈnaɾ']</t>
+    <t>['ʀɐj.ˈnaɾ']</t>
   </si>
   <si>
     <t>['bẽ.fɐj.tu.ˈɾi.ɐ']</t>
@@ -1852,7 +1852,7 @@
     <t>['vi.ˈzɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Rɐj.tu.ˈɾi.ɐ']</t>
+    <t>['ʀɐj.tu.ˈɾi.ɐ']</t>
   </si>
   <si>
     <t>['ɐ.tu.ˈlɐj.ɾu']</t>
@@ -1864,7 +1864,7 @@
     <t>['li.ˈʃɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Ri.bɐ̃.ˈsɐj.ɾɐ']</t>
+    <t>['ʀi.bɐ̃.ˈsɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['pɨʃ.ˈkɐj.ɾu']</t>
@@ -1873,13 +1873,13 @@
     <t>['ɡu.ˈtɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.ĩ.si.ˈdẽ.sjɐ']</t>
+    <t>['ʀɨ.ĩ.si.ˈdẽ.si.ɐ']</t>
   </si>
   <si>
     <t>['flu.ˈɾɐj.u']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈfɐj.tu']</t>
+    <t>['ʀɨ.ˈfɐj.tu']</t>
   </si>
   <si>
     <t>['ɔ.di.ˈsɐj.ɐ']</t>
@@ -1891,7 +1891,7 @@
     <t>['kɐ.mɐ.ˈɾɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɐj.tɨ.ɾɐ.ˈsɐ̃w̃']</t>
+    <t>['ʀɐj.tɨ.ɾɐ.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['ˈsɐj.fɐ']</t>
@@ -1918,13 +1918,13 @@
     <t>['iʃ.tɾɐj.tɐ.ˈmẽ.tu']</t>
   </si>
   <si>
-    <t>['vɨɾ.bu.ˈRɐj.ɐ']</t>
-  </si>
-  <si>
-    <t>['Rɐj.vĩ.di.kɐ.ˈsɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['Rɨ.mɨ.ˈdɐj.u']</t>
+    <t>['vɨɾ.bu.ˈʀɐj.ɐ']</t>
+  </si>
+  <si>
+    <t>['ʀɐj.vĩ.di.kɐ.ˈsɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.mɨ.ˈdɐj.u']</t>
   </si>
   <si>
     <t>['fɐj.ti.ˈsɐj.ɾɐ']</t>
@@ -1954,7 +1954,7 @@
     <t>['pɐ.ˈʎɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Ru.ˈzɐj.ɾɐ']</t>
+    <t>['ʀu.ˈzɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['bi.ˈkɐj.ɾɐ']</t>
@@ -1972,7 +1972,7 @@
     <t>['vi.ˈvɐj.ɾu']</t>
   </si>
   <si>
-    <t>['pɐ.ˈRɐj.ɾɐ']</t>
+    <t>['pɐ.ˈʀɐj.ɾɐ']</t>
   </si>
   <si>
     <t>['fu.ˈmɐj.ɾu']</t>
@@ -1987,7 +1987,7 @@
     <t>['ka.ˈlɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ʃiɫ.ˈRɐj.u']</t>
+    <t>['ʃiɫ.ˈʀɐj.u']</t>
   </si>
   <si>
     <t>['ˈtɐj.ʃu']</t>
@@ -2005,10 +2005,10 @@
     <t>['kaɫ.ˈdɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ˈsjɐj.ɾu']</t>
-  </si>
-  <si>
-    <t>['ɐ.ˈɾjɐj.ɾu']</t>
+    <t>['ˈsi.ɐj.ɾu']</t>
+  </si>
+  <si>
+    <t>['ɐ.ˈɾi.ɐj.ɾu']</t>
   </si>
   <si>
     <t>['ɔ.mɔ.ʒɨ.nɐj.ˈzaɾ']</t>
@@ -2023,7 +2023,7 @@
     <t>['kɐj.ˈɾɔ']</t>
   </si>
   <si>
-    <t>['Rɐj.ˈna.du']</t>
+    <t>['ʀɐj.ˈna.du']</t>
   </si>
   <si>
     <t>['pɾu.vɐj.ˈto.zu']</t>
@@ -2122,10 +2122,10 @@
     <t>['pɐʒ.mɐ.ˈsɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['Ru.ˈtɐj.ɾu']</t>
-  </si>
-  <si>
-    <t>['Rɨ.ĩ.pɾi.ˈmiɾ']</t>
+    <t>['ʀu.ˈtɐj.ɾu']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.ĩ.pɾi.ˈmiɾ']</t>
   </si>
   <si>
     <t>['kuʃ.ˈtɐj.ɾu']</t>
@@ -2146,7 +2146,7 @@
     <t>['sɐj.ˈfɐj.ɾɐ']</t>
   </si>
   <si>
-    <t>['ku.ˈRɐj.ue.leˈtɾɔ.ni.ku']</t>
+    <t>['ku.ˈʀɐj.ue.leˈtɾɔ.ni.ku']</t>
   </si>
   <si>
     <t>['ʒɐɾ.di.ˈnɐj.ɾɐʃ']</t>
@@ -2155,13 +2155,13 @@
     <t>['vɨʃ.ˈpɐj.ɾu']</t>
   </si>
   <si>
-    <t>['kɐ.ˈRɐj.ɾu']</t>
+    <t>['kɐ.ˈʀɐj.ɾu']</t>
   </si>
   <si>
     <t>['muʃ.kɨ.ˈtɐj.ɾu']</t>
   </si>
   <si>
-    <t>['Rɨʃ.pɐj.ˈta.du']</t>
+    <t>['ʀɨʃ.pɐj.ˈta.du']</t>
   </si>
   <si>
     <t>['maɫ.ʃɐj.ˈɾo.zu']</t>
@@ -3538,7 +3538,7 @@
     <t>['kõ.ˈbɔj.u']</t>
   </si>
   <si>
-    <t>['ˈmwi.ɲu']</t>
+    <t>['ˈmu.i.ɲu']</t>
   </si>
   <si>
     <t>['boj.ˈɐ̃w̃']</t>
@@ -3565,16 +3565,16 @@
     <t>['ˈʒoj.u']</t>
   </si>
   <si>
-    <t>['ɐ.ˈRoj.u']</t>
+    <t>['ɐ.ˈʀoj.u']</t>
   </si>
   <si>
     <t>['ku.i.ˈbiɾ']</t>
   </si>
   <si>
-    <t>['jɔ.ˈjɔ']</t>
-  </si>
-  <si>
-    <t>['kwĩ.si.ˈdiɾ']</t>
+    <t>['i.ɔ.ˈi.ɔ']</t>
+  </si>
+  <si>
+    <t>['kʷĩ.si.ˈdiɾ']</t>
   </si>
   <si>
     <t>['ˈpojʃ']</t>
@@ -3583,7 +3583,7 @@
     <t>['i.ˈɾɔj']</t>
   </si>
   <si>
-    <t>['dɨ.pwi.ˈmẽ.tu']</t>
+    <t>['dɨ.pu.i.ˈmẽ.tu']</t>
   </si>
   <si>
     <t>['ɐ.poj.ˈaɾ']</t>
@@ -3607,7 +3607,7 @@
     <t>['iʃ.toj.ˈɾaɾ']</t>
   </si>
   <si>
-    <t>['ɛ.mu.ˈRɔj.dɐʃ']</t>
+    <t>['ɛ.mu.ˈʀɔj.dɐʃ']</t>
   </si>
   <si>
     <t>['oj.ˈta.vɐ']</t>
@@ -3625,7 +3625,7 @@
     <t>['ɐɾ.kɐ.ˈboj.su']</t>
   </si>
   <si>
-    <t>['twa.ˈlɛ.tɨ']</t>
+    <t>['tu.a.ˈlɛ.tɨ']</t>
   </si>
   <si>
     <t>['oj.tu.ˈsẽ.tuʃ']</t>
@@ -3667,7 +3667,7 @@
     <t>['pɐ.ˈpoj.lɐ']</t>
   </si>
   <si>
-    <t>['Rɨ.ˈmwi.ɲu']</t>
+    <t>['ʀɨ.ˈmu.i.ɲu']</t>
   </si>
   <si>
     <t>['kla.ɾɐ.ˈbɔj.ɐ']</t>
@@ -3883,16 +3883,16 @@
     <t>benjoim</t>
   </si>
   <si>
-    <t>['kõ.tɾi.bwi.ˈsɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['kõʃ.ti.twi.ˈsɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['ĩ.ˈklwiɾ']</t>
-  </si>
-  <si>
-    <t>['ĩʃ.ti.twi.ˈsɐ̃w̃']</t>
+    <t>['kõ.tɾi.bu.i.ˈsɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['kõʃ.ti.tu.i.ˈsɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['ĩ.ˈklu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ĩʃ.ti.tu.i.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['ĩ.ˈtuj.tu']</t>
@@ -3904,31 +3904,31 @@
     <t>['kuj.ˈda.du']</t>
   </si>
   <si>
-    <t>['pu.ˈswiɾ']</t>
-  </si>
-  <si>
-    <t>['Ru.ˈĩ']</t>
-  </si>
-  <si>
-    <t>['pu.lwi.ˈsɐ̃w̃']</t>
+    <t>['pu.ˈsu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ʀu.ˈĩ']</t>
+  </si>
+  <si>
+    <t>['pu.lu.i.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['u.zu.fɾu.ˈiɾ']</t>
   </si>
   <si>
-    <t>['di.lwi.ˈsɐ̃w̃']</t>
+    <t>['di.lu.i.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['kõ.tɾi.ˈbwĩ.tɨ']</t>
   </si>
   <si>
-    <t>['kõ.ˈklwiɾ']</t>
-  </si>
-  <si>
-    <t>['pu.ˈlwiɾ']</t>
-  </si>
-  <si>
-    <t>['ˈflwiɾ']</t>
+    <t>['kõ.ˈklu.iɾ']</t>
+  </si>
+  <si>
+    <t>['pu.ˈlu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ˈflu.iɾ']</t>
   </si>
   <si>
     <t>['ˈfluj.du']</t>
@@ -3943,7 +3943,7 @@
     <t>['kõʃ.tɾu.ˈiɾ']</t>
   </si>
   <si>
-    <t>['ɐ.Rwi.ˈnaɾ']</t>
+    <t>['ɐ.ʀu.i.ˈnaɾ']</t>
   </si>
   <si>
     <t>['dɨʃ.tɾu.ˈiɾ']</t>
@@ -3952,115 +3952,115 @@
     <t>['ɔbʃ.tɾu.ˈiɾ']</t>
   </si>
   <si>
-    <t>['ĩʃ.ti.ˈtwiɾ']</t>
+    <t>['ĩʃ.ti.ˈtu.iɾ']</t>
   </si>
   <si>
     <t>['ĩ.ˈklwĩ.du']</t>
   </si>
   <si>
-    <t>['dɨ.mi.nwi.ˈsɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['ɐ.si.dwi.ˈda.dɨ']</t>
+    <t>['dɨ.mi.nu.i.ˈsɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['ɐ.si.du.i.ˈda.dɨ']</t>
   </si>
   <si>
     <t>['fuɾ.ˈtuj.tu']</t>
   </si>
   <si>
-    <t>['Rwi.ˈdo.zu']</t>
+    <t>['ʀu.i.ˈdo.zu']</t>
   </si>
   <si>
     <t>['dɨʃ.ˈkuj.du']</t>
   </si>
   <si>
-    <t>['ɐ.Rwi.ˈna.du']</t>
-  </si>
-  <si>
-    <t>['dɨʃ.tɾi.ˈbwiɾ']</t>
-  </si>
-  <si>
-    <t>['Rɨʃ.ti.ˈtwiɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.ˈflwiɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.ʒwi.ˈzaɾ']</t>
-  </si>
-  <si>
-    <t>['sub.ʃti.ˈtwiɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.ˈlwiɾ']</t>
-  </si>
-  <si>
-    <t>['dɨʃ.ti.ˈtwiɾ']</t>
+    <t>['ɐ.ʀu.i.ˈna.du']</t>
+  </si>
+  <si>
+    <t>['dɨʃ.tɾi.ˈbu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ʀɨʃ.ti.ˈtu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ˈflu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ʒu.i.ˈzaɾ']</t>
+  </si>
+  <si>
+    <t>['sub.ʃti.ˈtu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.ˈlu.iɾ']</t>
+  </si>
+  <si>
+    <t>['dɨʃ.ti.ˈtu.iɾ']</t>
   </si>
   <si>
     <t>['ĩʃ.tɾu.ˈiɾ']</t>
   </si>
   <si>
-    <t>['ɐ.ˈnwiɾ']</t>
+    <t>['ɐ.ˈnu.iɾ']</t>
   </si>
   <si>
     <t>['dɨʃ.tɾu.i.ˈsɐ̃w̃']</t>
   </si>
   <si>
-    <t>['sub.ʃti.twi.ˈsɐ̃w̃']</t>
+    <t>['sub.ʃti.tu.i.ˈsɐ̃w̃']</t>
   </si>
   <si>
     <t>['siɾ.ˈkuj.tu']</t>
   </si>
   <si>
-    <t>['iʃ.tɐ.ˈtwiɾ']</t>
-  </si>
-  <si>
-    <t>['ɐ.tɾi.ˈbwiɾ']</t>
-  </si>
-  <si>
-    <t>['ɐjʃ.ˈklwiɾ']</t>
-  </si>
-  <si>
-    <t>['dɨʃ.tɾi.bwi.ˈsɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['pɾu.miʃ.kwi.ˈda.dɨ']</t>
-  </si>
-  <si>
-    <t>['i.vu.ˈlwiɾ']</t>
-  </si>
-  <si>
-    <t>['kõ.ti.nwi.ˈda.dɨ']</t>
+    <t>['iʃ.tɐ.ˈtu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ɐ.tɾi.ˈbu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ɐjʃ.ˈklu.iɾ']</t>
+  </si>
+  <si>
+    <t>['dɨʃ.tɾi.bu.i.ˈsɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['pɾu.miʃ.kʷi.ˈda.dɨ']</t>
+  </si>
+  <si>
+    <t>['i.vu.ˈlu.iɾ']</t>
+  </si>
+  <si>
+    <t>['kõ.ti.nu.i.ˈda.dɨ']</t>
   </si>
   <si>
     <t>['kuj.dɐ.ˈdo.zu']</t>
   </si>
   <si>
-    <t>['ĩ.ʒɨ.nwi.ˈda.dɨ']</t>
-  </si>
-  <si>
-    <t>['ˈpwiɾ']</t>
+    <t>['ĩ.ʒɨ.nu.i.ˈda.dɨ']</t>
+  </si>
+  <si>
+    <t>['ˈpu.iɾ']</t>
   </si>
   <si>
     <t>['dɨʃ.kuj.ˈda.du']</t>
   </si>
   <si>
-    <t>['ˈRuj.vu']</t>
+    <t>['ˈʀuj.vu']</t>
   </si>
   <si>
     <t>['ˈdɾuj.dɐ']</t>
   </si>
   <si>
-    <t>['ˈRwiɾ']</t>
+    <t>['ˈʀu.iɾ']</t>
   </si>
   <si>
     <t>['flu.i.ˈdeʃ']</t>
   </si>
   <si>
-    <t>['ɐ.tɾi.bwi.ˈsɐ̃w̃']</t>
-  </si>
-  <si>
-    <t>['Rɨ.tɾi.ˈbwiɾ']</t>
+    <t>['ɐ.tɾi.bu.i.ˈsɐ̃w̃']</t>
+  </si>
+  <si>
+    <t>['ʀɨ.tɾi.ˈbu.iɾ']</t>
   </si>
   <si>
     <t>['ˈuj.vu']</t>
@@ -4069,19 +4069,19 @@
     <t>['ˈuj']</t>
   </si>
   <si>
-    <t>['Rɨ.kõʃ.ti.ˈtwiɾ']</t>
-  </si>
-  <si>
-    <t>['di.ˈlwiɾ']</t>
-  </si>
-  <si>
-    <t>['ĩ.ˈflwiɾ']</t>
+    <t>['ʀɨ.kõʃ.ti.ˈtu.iɾ']</t>
+  </si>
+  <si>
+    <t>['di.ˈlu.iɾ']</t>
+  </si>
+  <si>
+    <t>['ĩ.ˈflu.iɾ']</t>
   </si>
   <si>
     <t>['kõʃ.ti.ˈtwĩ.tɨ']</t>
   </si>
   <si>
-    <t>['Rwi.ˈno.zu']</t>
+    <t>['ʀu.i.ˈno.zu']</t>
   </si>
   <si>
     <t>contribuição</t>
